--- a/Dataset/Data-hasil-klasifikasi.xlsx
+++ b/Dataset/Data-hasil-klasifikasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/faddlis-macbook-pro/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/Twitter-Sentiment-Analysis-with-Streamlit/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D533943-D32C-AF4A-8333-D0E148E51CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87E1E13A-563D-9343-A7C8-2B1503771F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14307,13 +14307,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
